--- a/simulated_data/10nodes_5len_trial6.xlsx
+++ b/simulated_data/10nodes_5len_trial6.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.163810954149102</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1638109541491004</v>
+        <v>1.16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.435</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6425036074986006</v>
+        <v>1.16</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6425036074986021</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.065</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7568079284292287</v>
+        <v>1.17</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7568079284292286</v>
+        <v>1.305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.411290376907967</v>
+        <v>3.435</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.411290376907967</v>
+        <v>1.915</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.175000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.37591834099125</v>
+        <v>1.98</v>
       </c>
       <c r="C6" t="n">
-        <v>1.375918340991249</v>
+        <v>2.23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.315</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8610189375821476</v>
+        <v>1.935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8610189375821472</v>
+        <v>1.69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2129825195746872</v>
+        <v>1.885</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2129825195746858</v>
+        <v>1.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1650887801723654</v>
+        <v>1.285</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1650887801723663</v>
+        <v>2.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.53496283082393</v>
+        <v>2.47</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.53496283082393</v>
+        <v>1.515</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.315</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2.19</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3.065</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.175000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>0.79</v>
       </c>
       <c r="I2" t="n">
         <v>1.59</v>
       </c>
       <c r="J2" t="n">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="E3" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="G3" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.97</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.29</v>
-      </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="H4" t="n">
-        <v>0.83</v>
+        <v>1.76</v>
       </c>
       <c r="I4" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.77</v>
+        <v>1.69</v>
       </c>
       <c r="K4" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="C5" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="D5" t="n">
-        <v>2.45</v>
+        <v>1.59</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.12</v>
+        <v>3.48</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="H5" t="n">
-        <v>1.66</v>
+        <v>2.23</v>
       </c>
       <c r="I5" t="n">
-        <v>2.48</v>
+        <v>3.28</v>
       </c>
       <c r="J5" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="K5" t="n">
-        <v>4.43</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="C6" t="n">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="D6" t="n">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="E6" t="n">
-        <v>4.12</v>
+        <v>3.48</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.39</v>
+        <v>2.77</v>
       </c>
       <c r="J6" t="n">
-        <v>4.08</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="n">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="C7" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="D7" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="E7" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="I7" t="n">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.89</v>
+        <v>3.62</v>
       </c>
       <c r="K7" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.6</v>
+        <v>0.79</v>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="D8" t="n">
-        <v>0.83</v>
+        <v>1.76</v>
       </c>
       <c r="E8" t="n">
-        <v>1.66</v>
+        <v>2.23</v>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>1.16</v>
       </c>
       <c r="J8" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="K8" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="9">
@@ -967,31 +1238,31 @@
         <v>1.59</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D9" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="E9" t="n">
-        <v>2.48</v>
+        <v>3.28</v>
       </c>
       <c r="F9" t="n">
-        <v>3.39</v>
+        <v>2.77</v>
       </c>
       <c r="G9" t="n">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>1.16</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.87</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="C10" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="D10" t="n">
-        <v>2.77</v>
+        <v>1.69</v>
       </c>
       <c r="E10" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="F10" t="n">
-        <v>4.08</v>
+        <v>3.37</v>
       </c>
       <c r="G10" t="n">
-        <v>3.89</v>
+        <v>3.62</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="I10" t="n">
-        <v>1.87</v>
+        <v>2.74</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.24</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
       <c r="C11" t="n">
-        <v>2.63</v>
+        <v>3.21</v>
       </c>
       <c r="D11" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="E11" t="n">
-        <v>4.43</v>
+        <v>4.74</v>
       </c>
       <c r="F11" t="n">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="G11" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="I11" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="J11" t="n">
-        <v>4.24</v>
+        <v>4.59</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5252450848047489</v>
+        <v>3.566442417845443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2092925168942618</v>
+        <v>4.436676643297132</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3677006026070184</v>
+        <v>4.376827682150994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1186191600097512</v>
+        <v>4.689834603669072</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.056018556307103</v>
+        <v>4.331872546811653</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9694409977586611</v>
+        <v>5.721124659956741</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.700473926738283</v>
+        <v>5.896600593044485</v>
       </c>
       <c r="C5" t="n">
-        <v>1.390736046668529</v>
+        <v>5.423339136659459</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.145799066052712</v>
+        <v>2.418626552172542</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.581707302927131</v>
+        <v>5.240700716921678</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9057580755942554</v>
+        <v>2.214104860285611</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.510439320282852</v>
+        <v>5.505214085673196</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.037006811373066</v>
+        <v>4.209458739140477</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1357692183446155</v>
+        <v>3.969838249168428</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7443904273743942</v>
+        <v>3.839086094005665</v>
       </c>
       <c r="C9" t="n">
-        <v>1.779767103291843</v>
+        <v>2.866095876253838</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.126579760175022</v>
+        <v>5.76417784626963</v>
       </c>
       <c r="C10" t="n">
-        <v>1.800947568473702</v>
+        <v>4.816772061643874</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.966587003374381</v>
+        <v>1.178534792977786</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.102005556024826</v>
+        <v>4.949417955311041</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="D2" t="n">
-        <v>2.42</v>
+        <v>0.84</v>
       </c>
       <c r="E2" t="n">
-        <v>2.31</v>
+        <v>1.76</v>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>1.41</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="K2" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="F3" t="n">
-        <v>2.09</v>
+        <v>2.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>2.13</v>
       </c>
       <c r="H3" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>0.68</v>
       </c>
       <c r="J3" t="n">
-        <v>2.02</v>
+        <v>1.26</v>
       </c>
       <c r="K3" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.42</v>
+        <v>0.84</v>
       </c>
       <c r="C4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.74</v>
+        <v>0.93</v>
       </c>
       <c r="F4" t="n">
-        <v>2.71</v>
+        <v>3.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.85</v>
+        <v>2.29</v>
       </c>
       <c r="H4" t="n">
-        <v>1.05</v>
+        <v>0.77</v>
       </c>
       <c r="I4" t="n">
-        <v>3.54</v>
+        <v>0.84</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.18</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.31</v>
+        <v>1.76</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="D5" t="n">
-        <v>2.74</v>
+        <v>0.93</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="G5" t="n">
-        <v>4.19</v>
+        <v>3.21</v>
       </c>
       <c r="H5" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="K5" t="n">
-        <v>4.15</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="C6" t="n">
-        <v>2.09</v>
+        <v>2.85</v>
       </c>
       <c r="D6" t="n">
-        <v>2.71</v>
+        <v>3.02</v>
       </c>
       <c r="E6" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.85</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>4.01</v>
+        <v>4.12</v>
       </c>
       <c r="K6" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="C7" t="n">
-        <v>2.42</v>
+        <v>2.13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.85</v>
+        <v>2.29</v>
       </c>
       <c r="E7" t="n">
-        <v>4.19</v>
+        <v>3.21</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.49</v>
+        <v>1.52</v>
       </c>
       <c r="I7" t="n">
-        <v>3.21</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>4.37</v>
+        <v>3.39</v>
       </c>
       <c r="K7" t="n">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.41</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="D8" t="n">
-        <v>1.05</v>
+        <v>0.77</v>
       </c>
       <c r="E8" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G8" t="n">
-        <v>2.49</v>
+        <v>1.52</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.49</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.95</v>
+        <v>0.68</v>
       </c>
       <c r="D9" t="n">
-        <v>3.54</v>
+        <v>0.84</v>
       </c>
       <c r="E9" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="F9" t="n">
-        <v>2.85</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>3.21</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>2.49</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.17</v>
+        <v>1.94</v>
       </c>
       <c r="K9" t="n">
-        <v>2.89</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="C10" t="n">
-        <v>2.02</v>
+        <v>1.26</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.01</v>
+        <v>4.12</v>
       </c>
       <c r="G10" t="n">
-        <v>4.37</v>
+        <v>3.39</v>
       </c>
       <c r="H10" t="n">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="I10" t="n">
-        <v>2.17</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.29</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="C11" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="D11" t="n">
-        <v>3.18</v>
+        <v>2.48</v>
       </c>
       <c r="E11" t="n">
-        <v>4.15</v>
+        <v>3.41</v>
       </c>
       <c r="F11" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="G11" t="n">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.63</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>2.89</v>
+        <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>4.29</v>
+        <v>3.58</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1223581615787337</v>
+        <v>-0.163810954149102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0876968169289291</v>
+        <v>-0.1638109541491004</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1221963859357191</v>
+        <v>-0.6425036074986006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003745491694277036</v>
+        <v>-0.6425036074986021</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3765659515939798</v>
+        <v>-0.7568079284292287</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.356760424801329</v>
+        <v>-0.7568079284292286</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4304794134289709</v>
+        <v>-1.411290376907967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4022800340660869</v>
+        <v>-1.411290376907967</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3696452713161902</v>
+        <v>1.37591834099125</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3030125493324118</v>
+        <v>1.375918340991249</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4166934425150147</v>
+        <v>0.8610189375821476</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3940081984607148</v>
+        <v>0.8610189375821472</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2131747290610469</v>
+        <v>-0.2129825195746872</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1142968291299439</v>
+        <v>-0.2129825195746858</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1747611399994231</v>
+        <v>-0.1650887801723654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4589587809942154</v>
+        <v>-0.1650887801723663</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4266062842556741</v>
+        <v>-1.53496283082393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4760246728786161</v>
+        <v>-1.53496283082393</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4963910154538871</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2735026003675748</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="E2" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0.19</v>
+        <v>1.59</v>
       </c>
       <c r="J2" t="n">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="K2" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>1.29</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="I3" t="n">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.41</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="C4" t="n">
-        <v>0.52</v>
+        <v>1.29</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="F4" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="G4" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="I4" t="n">
-        <v>1.39</v>
+        <v>3.29</v>
       </c>
       <c r="J4" t="n">
-        <v>0.88</v>
+        <v>2.77</v>
       </c>
       <c r="K4" t="n">
-        <v>3.92</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="C5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.97</v>
+        <v>4.12</v>
       </c>
       <c r="G5" t="n">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="J5" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="K5" t="n">
-        <v>5.23</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="6">
@@ -1935,16 +2206,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="C6" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="D6" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="E6" t="n">
-        <v>3.97</v>
+        <v>4.12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1953,16 +2224,16 @@
         <v>0.25</v>
       </c>
       <c r="H6" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>1.27</v>
+        <v>3.39</v>
       </c>
       <c r="J6" t="n">
-        <v>3.54</v>
+        <v>4.08</v>
       </c>
       <c r="K6" t="n">
-        <v>1.26</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
@@ -1970,16 +2241,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="D7" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="E7" t="n">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="n">
         <v>0.25</v>
@@ -1988,16 +2259,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.52</v>
+        <v>3.29</v>
       </c>
       <c r="J7" t="n">
-        <v>3.79</v>
+        <v>3.89</v>
       </c>
       <c r="K7" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.64</v>
+        <v>1.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="E8" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.46</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="K8" t="n">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.19</v>
+        <v>1.59</v>
       </c>
       <c r="C9" t="n">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.39</v>
+        <v>3.29</v>
       </c>
       <c r="E9" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="F9" t="n">
-        <v>1.27</v>
+        <v>3.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>3.29</v>
       </c>
       <c r="H9" t="n">
-        <v>0.46</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="K9" t="n">
-        <v>2.53</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="C10" t="n">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="D10" t="n">
-        <v>0.88</v>
+        <v>2.77</v>
       </c>
       <c r="E10" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="F10" t="n">
-        <v>3.54</v>
+        <v>4.08</v>
       </c>
       <c r="G10" t="n">
-        <v>3.79</v>
+        <v>3.89</v>
       </c>
       <c r="H10" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="I10" t="n">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="C11" t="n">
-        <v>3.41</v>
+        <v>2.63</v>
       </c>
       <c r="D11" t="n">
-        <v>3.92</v>
+        <v>3.03</v>
       </c>
       <c r="E11" t="n">
-        <v>5.23</v>
+        <v>4.43</v>
       </c>
       <c r="F11" t="n">
-        <v>1.26</v>
+        <v>0.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.53</v>
+        <v>3.13</v>
       </c>
       <c r="J11" t="n">
-        <v>4.8</v>
+        <v>4.24</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1350084445618832</v>
+        <v>-0.3101013428703321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1350084445635203</v>
+        <v>-0.472782099775479</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6170593280586091</v>
+        <v>-0.04269188641676437</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6170593280582485</v>
+        <v>0.3839943243328827</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9819981592852222</v>
+        <v>1.161037351778516</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9819981592851433</v>
+        <v>0.8408229939629849</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.904610102903662</v>
+        <v>-1.022590487297538</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.904610102904264</v>
+        <v>1.94423944572294</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9032027731796621</v>
+        <v>1.320625890336805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9032027731795518</v>
+        <v>-1.438958216794197</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.077403218192549</v>
+        <v>1.298799878745154</v>
       </c>
       <c r="C7" t="n">
-        <v>1.077403218192516</v>
+        <v>-1.189513979205868</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3199609661207309</v>
+        <v>0.3404031727793982</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3199609661213375</v>
+        <v>0.9889095446452623</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002996013646225149</v>
+        <v>-1.892677410414395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002996013644242262</v>
+        <v>-0.373443798203807</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.600782430745105</v>
+        <v>-1.539281079172679</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.600782430744976</v>
+        <v>1.463969897136595</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.792826588195821</v>
+        <v>0.6864759125318339</v>
       </c>
       <c r="C11" t="n">
-        <v>1.792826588195957</v>
+        <v>-2.147238111821314</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001857280731201172</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001385211944580078</v>
+        <v>0.84</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1719436645507812</v>
+        <v>1.38</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8502860069274902</v>
+        <v>1.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1281807422637939</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1153552532196045</v>
+        <v>2.29</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6396753787994385</v>
+        <v>1.46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.09538645745322528</v>
       </c>
       <c r="C2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.064102564102564</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5702222222222222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.249442986195046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001857280731201172</v>
+        <v>-0.06943761723854082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.136182103347934</v>
       </c>
       <c r="C3" t="n">
-        <v>1.365</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3745555555555556</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.172009394676081</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001385211944580078</v>
+        <v>0.1618794096063094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.2588728013285645</v>
       </c>
       <c r="C4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.602564102564102</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4866666666666667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2522814314090147</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1719436645507812</v>
+        <v>-0.213880294686859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.4768625223612483</v>
       </c>
       <c r="C5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7835555555555553</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4156869183900934</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8502860069274902</v>
+        <v>0.1424834423363133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.2664209380644333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3921568627450979</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1691111111111111</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.09633745709356614</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1281807422637939</v>
+        <v>0.1542038417471983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.4307787236893219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9400000000000002</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3197777777777778</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1855728035785781</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1153552532196045</v>
+        <v>0.2830316518992841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.1760385862921639</v>
       </c>
       <c r="C8" t="n">
-        <v>2.66</v>
+        <v>-0.4579637895570649</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4323912184143057</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1927500996358094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4158857417879005</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.4776705205119962</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.03050657817299691</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.66752682751549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.42</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8549618320610688</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6822222222222223</v>
+        <v>2.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3026180449468306</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7222222222222222</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6396753787994385</v>
+        <v>0.46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1350084445618832</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1350084445635203</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.6170593280586091</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6170593280582485</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.9819981592852222</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.9819981592851433</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.904610102903662</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.904610102904264</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9032027731796621</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9032027731795518</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.077403218192549</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.077403218192516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.3199609661207309</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3199609661213375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.002996013646225149</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002996013644242262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.600782430745105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.600782430744976</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.792826588195821</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.792826588195957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03372797767336373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002303218618988291</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.06336328707149257</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2454426480204523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02881455634208585</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.5676987034158962</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4419803360870236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1011428177274373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4352424401941167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08137934246743997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4176414187876635</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.07578336886809467</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.08120389377847563</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2016417853954738</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2545659770216053</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6375275907589841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4618040518263564</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09907024801285258</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3874911527902008</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.371428923568936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3528185903153485</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.3675138549440719</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.86189723228082</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.466851422612536</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2855999072454858</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.65725966308905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.415183562414212</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1124440399728517</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-4.373558567781382</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1181665696935732</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-3.868951380493642</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4877513313557863</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8694579638607964</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9863445548190325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.809116515439374</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.998222950718535</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.514921345014518</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.011628249028175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.160847987664835</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.950147097353049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002565383911132812</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002605915069580078</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002622604370117188</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.384383678436279</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.231548070907593</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2300076484680176</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09414935111999512</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.08221101760864258</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01324963569641113</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009859800338745117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.53</v>
+        <v>0.59</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="E2" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>1.17</v>
       </c>
       <c r="I2" t="n">
-        <v>1.17</v>
+        <v>2.04</v>
       </c>
       <c r="J2" t="n">
-        <v>2.77</v>
+        <v>1.82</v>
       </c>
       <c r="K2" t="n">
-        <v>2.14</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="E3" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="F3" t="n">
-        <v>3.27</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="K3" t="n">
-        <v>2.47</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="C4" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="F4" t="n">
-        <v>3.33</v>
+        <v>1.93</v>
       </c>
       <c r="G4" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>2.03</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J4" t="n">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.31</v>
+        <v>1.99</v>
       </c>
       <c r="C5" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.38</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>1.72</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.74</v>
+        <v>2.43</v>
       </c>
       <c r="J5" t="n">
         <v>0.57</v>
       </c>
       <c r="K5" t="n">
-        <v>4.91</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="C6" t="n">
-        <v>1.19</v>
+        <v>2.08</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="E6" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>5.76</v>
+        <v>3.42</v>
       </c>
       <c r="K6" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.06</v>
-      </c>
       <c r="E7" t="n">
-        <v>4.86</v>
+        <v>3.85</v>
       </c>
       <c r="F7" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.27</v>
+        <v>1.93</v>
       </c>
       <c r="I7" t="n">
-        <v>3.27</v>
+        <v>3.38</v>
       </c>
       <c r="J7" t="n">
-        <v>3.39</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="C8" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="D8" t="n">
-        <v>1.39</v>
+        <v>2.03</v>
       </c>
       <c r="E8" t="n">
-        <v>2.17</v>
+        <v>2.75</v>
       </c>
       <c r="F8" t="n">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.16</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>1.46</v>
       </c>
       <c r="J8" t="n">
-        <v>3.32</v>
+        <v>2.36</v>
       </c>
       <c r="K8" t="n">
-        <v>1.72</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="C9" t="n">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="D9" t="n">
-        <v>5.3</v>
+        <v>2.84</v>
       </c>
       <c r="E9" t="n">
-        <v>2.71</v>
+        <v>2.43</v>
       </c>
       <c r="F9" t="n">
-        <v>4.64</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.04</v>
+        <v>1.46</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="K9" t="n">
-        <v>1.51</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="C10" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="D10" t="n">
-        <v>2.82</v>
+        <v>2.05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="F10" t="n">
-        <v>4.87</v>
+        <v>3.42</v>
       </c>
       <c r="G10" t="n">
-        <v>3.83</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.48</v>
+        <v>2.36</v>
       </c>
       <c r="I10" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.09</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.24</v>
+        <v>2.84</v>
       </c>
       <c r="C11" t="n">
-        <v>3.66</v>
+        <v>3.22</v>
       </c>
       <c r="D11" t="n">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="E11" t="n">
-        <v>5.44</v>
+        <v>4.83</v>
       </c>
       <c r="F11" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.12</v>
+        <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>5.91</v>
+        <v>3.81</v>
       </c>
       <c r="J11" t="n">
-        <v>4.21</v>
+        <v>4.59</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.153002079856771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.938083026737343</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.213370414156659</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.528412898855914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.797955560774457</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.345633202333764</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.813501474550484</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.03187800841106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.915587884598724</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.904135533413549</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.840078179839723</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.583255903067428</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.121224629661158</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.495650235275529</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.544058820635404</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.888493615901871</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.32328953164084</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.33208534066537</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6624052974781903</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.569944558792376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.064102564102564</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5702222222222222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.249442986195046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001857280731201172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3745555555555556</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.172009394676081</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001385211944580078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.602564102564102</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4866666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2522814314090147</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1719436645507812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7835555555555553</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4156869183900934</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8502860069274902</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3921568627450979</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1691111111111111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09633745709356614</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1281807422637939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9400000000000002</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3197777777777778</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1855728035785781</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1153552532196045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8549618320610688</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6822222222222223</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3026180449468306</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6396753787994385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.17</v>
       </c>
-      <c r="E2" t="n">
-        <v>3.435</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.935</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.285</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.47</v>
+        <v>2.77</v>
       </c>
       <c r="K2" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.16</v>
+        <v>0.79</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.305</v>
+        <v>1.46</v>
       </c>
       <c r="E3" t="n">
-        <v>1.915</v>
+        <v>1.38</v>
       </c>
       <c r="F3" t="n">
-        <v>2.23</v>
+        <v>3.27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="J3" t="n">
-        <v>1.515</v>
+        <v>1.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.065</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="C4" t="n">
-        <v>1.305</v>
+        <v>1.15</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.935</v>
+        <v>2.07</v>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1.645</v>
+        <v>2.23</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
-        <v>4.12</v>
+        <v>2.94</v>
       </c>
       <c r="J4" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="K4" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.435</v>
+        <v>5.31</v>
       </c>
       <c r="C5" t="n">
-        <v>1.915</v>
+        <v>2.45</v>
       </c>
       <c r="D5" t="n">
-        <v>1.935</v>
+        <v>1.8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.66</v>
+        <v>4.38</v>
       </c>
       <c r="G5" t="n">
-        <v>3.89</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>1.945</v>
+        <v>1.72</v>
       </c>
       <c r="I5" t="n">
-        <v>2.225</v>
+        <v>1.74</v>
       </c>
       <c r="J5" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="K5" t="n">
-        <v>5.175000000000001</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.23</v>
+        <v>1.19</v>
       </c>
       <c r="D6" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="E6" t="n">
-        <v>3.66</v>
+        <v>2.94</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.315</v>
+        <v>0.18</v>
       </c>
       <c r="H6" t="n">
-        <v>2.315</v>
+        <v>2.06</v>
       </c>
       <c r="I6" t="n">
-        <v>3.28</v>
+        <v>1.92</v>
       </c>
       <c r="J6" t="n">
-        <v>5.315</v>
+        <v>5.76</v>
       </c>
       <c r="K6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.935</v>
+        <v>2.1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="D7" t="n">
-        <v>1.645</v>
+        <v>1.06</v>
       </c>
       <c r="E7" t="n">
-        <v>3.89</v>
+        <v>4.86</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315</v>
+        <v>0.45</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.215</v>
+        <v>3.27</v>
       </c>
       <c r="I7" t="n">
-        <v>3.545</v>
+        <v>3.27</v>
       </c>
       <c r="J7" t="n">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="K7" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.885</v>
+        <v>1.35</v>
       </c>
       <c r="C8" t="n">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="E8" t="n">
-        <v>1.945</v>
+        <v>2.17</v>
       </c>
       <c r="F8" t="n">
-        <v>2.315</v>
+        <v>2.57</v>
       </c>
       <c r="G8" t="n">
-        <v>3.215</v>
+        <v>3.16</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.69</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>3.32</v>
       </c>
       <c r="K8" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="C9" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="D9" t="n">
-        <v>4.12</v>
+        <v>5.3</v>
       </c>
       <c r="E9" t="n">
-        <v>2.225</v>
+        <v>2.71</v>
       </c>
       <c r="F9" t="n">
-        <v>3.28</v>
+        <v>4.64</v>
       </c>
       <c r="G9" t="n">
-        <v>3.545</v>
+        <v>3.82</v>
       </c>
       <c r="H9" t="n">
-        <v>2.69</v>
+        <v>3.04</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.695</v>
+        <v>1.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.71</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.47</v>
+        <v>2.17</v>
       </c>
       <c r="C10" t="n">
-        <v>1.515</v>
+        <v>1.73</v>
       </c>
       <c r="D10" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="E10" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="F10" t="n">
-        <v>5.315</v>
+        <v>4.87</v>
       </c>
       <c r="G10" t="n">
-        <v>3.61</v>
+        <v>3.83</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
-        <v>1.695</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="C11" t="n">
-        <v>3.065</v>
+        <v>3.66</v>
       </c>
       <c r="D11" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="E11" t="n">
-        <v>5.175000000000001</v>
+        <v>5.44</v>
       </c>
       <c r="F11" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="G11" t="n">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>3.12</v>
       </c>
       <c r="I11" t="n">
-        <v>3.71</v>
+        <v>5.91</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.153002079856771</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.938083026737343</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.213370414156659</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.528412898855914</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.797955560774457</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.345633202333764</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.813501474550484</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.03187800841106</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.915587884598724</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.904135533413549</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.840078179839723</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.583255903067428</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.121224629661158</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.495650235275529</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.544058820635404</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.888493615901871</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.32328953164084</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.33208534066537</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6624052974781903</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.569944558792376</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.68</v>
+        <v>1.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>1.17</v>
       </c>
       <c r="E2" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="F2" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="J2" t="n">
-        <v>1.94</v>
+        <v>2.45</v>
       </c>
       <c r="K2" t="n">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.68</v>
+        <v>1.1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.09</v>
+        <v>1.84</v>
       </c>
       <c r="F3" t="n">
-        <v>2.85</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.61</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>0.68</v>
+        <v>2.07</v>
       </c>
       <c r="J3" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.32</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.84</v>
+        <v>1.17</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.93</v>
+        <v>1.93</v>
       </c>
       <c r="F4" t="n">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.29</v>
+        <v>1.54</v>
       </c>
       <c r="H4" t="n">
-        <v>0.77</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.84</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="K4" t="n">
-        <v>2.48</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="C5" t="n">
-        <v>1.09</v>
+        <v>1.84</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>1.93</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="G5" t="n">
-        <v>3.21</v>
+        <v>3.77</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="J5" t="n">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="K5" t="n">
-        <v>3.41</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="C6" t="n">
-        <v>2.85</v>
+        <v>1.97</v>
       </c>
       <c r="D6" t="n">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73</v>
+        <v>0.29</v>
       </c>
       <c r="H6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="J6" t="n">
-        <v>4.12</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.53</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="C7" t="n">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="D7" t="n">
-        <v>2.29</v>
+        <v>1.54</v>
       </c>
       <c r="E7" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.21</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.52</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.45</v>
+        <v>3.53</v>
       </c>
       <c r="J7" t="n">
-        <v>3.39</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="C8" t="n">
-        <v>0.61</v>
+        <v>1.01</v>
       </c>
       <c r="D8" t="n">
-        <v>0.77</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="F8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.52</v>
+        <v>3.21</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="J8" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="K8" t="n">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="C9" t="n">
-        <v>0.68</v>
+        <v>2.07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.84</v>
+        <v>3.95</v>
       </c>
       <c r="E9" t="n">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>3.53</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="K9" t="n">
-        <v>1.65</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.94</v>
+        <v>2.45</v>
       </c>
       <c r="C10" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="E10" t="n">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="F10" t="n">
-        <v>4.12</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
-        <v>3.39</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="C11" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.32</v>
       </c>
-      <c r="D11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.72</v>
-      </c>
       <c r="I11" t="n">
-        <v>1.65</v>
+        <v>2.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
